--- a/Runs/Final_PDI1_RLU2/PC3/IV_Validation/Validation_set.xlsx
+++ b/Runs/Final_PDI1_RLU2/PC3/IV_Validation/Validation_set.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,81 +492,81 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5734</v>
+        <v>2240</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14PA</t>
+          <t>18PG</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>11.8502</v>
+        <v>9.3028</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I2" t="n">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00263843267830769</v>
+        <v>0.001327044311833706</v>
       </c>
       <c r="K2" t="n">
-        <v>2.022645667677915</v>
+        <v>2.011390021328469</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4751</v>
+        <v>3690</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>14PA</t>
+          <t>18PG</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.8502</v>
+        <v>9.3028</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="H3" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="I3" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002025982769213656</v>
+        <v>0.001326794255551539</v>
       </c>
       <c r="K3" t="n">
-        <v>2.017389010108161</v>
+        <v>2.011387875095399</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>258</v>
+        <v>7653</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -583,27 +583,27 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H4" t="n">
         <v>65</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0008336542046916309</v>
+        <v>0.0006893382045958312</v>
       </c>
       <c r="K4" t="n">
-        <v>2.007155254038868</v>
+        <v>2.005916589810046</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>624</v>
+        <v>747</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -620,64 +620,64 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="H5" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001053974721529496</v>
+        <v>6.117747643906001e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>2.009046265034887</v>
+        <v>2.000525086280276</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5969</v>
+        <v>10824</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DDAB</t>
+          <t>18PG</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>12.73</v>
+        <v>9.3028</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H6" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7622506896265333</v>
+        <v>0.0003723426932675778</v>
       </c>
       <c r="K6" t="n">
-        <v>8.542397669064535</v>
+        <v>2.003195817336316</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5928</v>
+        <v>77583</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -694,27 +694,27 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G7" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I7" t="n">
-        <v>165</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.01066457500879351</v>
+        <v>0.7638837941433332</v>
       </c>
       <c r="K7" t="n">
-        <v>1.908465952699525</v>
+        <v>8.556414605132229</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2503</v>
+        <v>33757</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -731,27 +731,27 @@
         <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="H8" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8681580500121377</v>
+        <v>0.8007117726331708</v>
       </c>
       <c r="K8" t="n">
-        <v>9.451400543254179</v>
+        <v>8.872509144510504</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2516</v>
+        <v>29038</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -768,27 +768,27 @@
         <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
         <v>40</v>
       </c>
       <c r="H9" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8949727280433524</v>
+        <v>0.8348125341793452</v>
       </c>
       <c r="K9" t="n">
-        <v>9.681550924796094</v>
+        <v>9.16519598086132</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3329</v>
+        <v>31284</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -805,27 +805,27 @@
         <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="H10" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="I10" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>0.759591981045634</v>
+        <v>0.9024208400522759</v>
       </c>
       <c r="K10" t="n">
-        <v>8.519577973314677</v>
+        <v>9.745478070168682</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2317</v>
+        <v>31499</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -842,22 +842,96 @@
         <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>70</v>
+        <v>450</v>
       </c>
       <c r="H11" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="n">
+        <v>0.8339674949742872</v>
+      </c>
+      <c r="K11" t="n">
+        <v>9.157943009364308</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>29214</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DOTAP</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>12.515</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>250</v>
+      </c>
+      <c r="H12" t="n">
+        <v>70</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="n">
         <v>0.9008149036590295</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K12" t="n">
         <v>9.73169431810545</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>52416</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DSPC</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>9</v>
+      </c>
+      <c r="G13" t="n">
+        <v>20</v>
+      </c>
+      <c r="H13" t="n">
+        <v>25</v>
+      </c>
+      <c r="I13" t="n">
+        <v>160</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.001119367752479003</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.009607533419527</v>
       </c>
     </row>
   </sheetData>
